--- a/data/trans_orig/IMC_inf_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD03579A-8A3D-49B7-85FB-12312AC38C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC1E4CA8-0E5A-425C-A920-FFDE6D12B33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08C07222-789E-4EF8-88F9-57870891AAA2}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{B61B4D8C-460A-4EBA-8E98-7FC51A705E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="308">
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2007 (Tasa respuesta: 84,27%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2007 (Tasa respuesta: 84,27%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,73 +68,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>49,96%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,826 +137,811 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
     <t>48,33%</t>
   </si>
   <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>42,51%</t>
   </si>
   <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>51,67%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
   </si>
   <si>
     <t>57,49%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>35,04%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>64,96%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
   <si>
     <t>45,42%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>54,58%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Población con sobrepeso u obesidad declarado en 2012 (Tasa respuesta: 74,13%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2012 (Tasa respuesta: 74,13%)</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>45,55%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>51,66%</t>
   </si>
   <si>
-    <t>47,6%</t>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2016 (Tasa respuesta: 77,23%)</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>56,08%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2016 (Tasa respuesta: 77,23%)</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
   </si>
   <si>
     <t>60,84%</t>
   </si>
   <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>43,99%</t>
   </si>
   <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
     <t>55,27%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>60,03%</t>
   </si>
   <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2023 (Tasa respuesta: 84,22%)</t>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2023 (Tasa respuesta: 84,22%)</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CC857F-A909-48DF-8F09-E1DBB42BD885}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF7EF0A-CC92-4032-B13A-F97D55EC88B7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1492,88 +1471,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D4" s="7">
+        <v>24602</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="I4" s="7">
+        <v>34384</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="N4" s="7">
+        <v>58986</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54733</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="I5" s="7">
+        <v>34325</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>132</v>
+      </c>
+      <c r="N5" s="7">
+        <v>89058</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,147 +1573,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="D6" s="7">
+        <v>79335</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68709</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="N6" s="7">
+        <v>148044</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="D7" s="7">
-        <v>34384</v>
+        <v>125755</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
+        <v>299</v>
+      </c>
+      <c r="I7" s="7">
+        <v>198190</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>492</v>
+      </c>
+      <c r="N7" s="7">
+        <v>323945</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="7">
-        <v>24602</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="7">
-        <v>90</v>
-      </c>
-      <c r="N7" s="7">
-        <v>58986</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>52</v>
+        <v>338</v>
       </c>
       <c r="D8" s="7">
-        <v>34325</v>
+        <v>226343</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="I8" s="7">
-        <v>54733</v>
+        <v>211844</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>132</v>
+        <v>658</v>
       </c>
       <c r="N8" s="7">
-        <v>89058</v>
+        <v>438187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,153 +1728,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>103</v>
+        <v>531</v>
       </c>
       <c r="D9" s="7">
-        <v>68709</v>
+        <v>352098</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>119</v>
+        <v>619</v>
       </c>
       <c r="I9" s="7">
-        <v>79335</v>
+        <v>410034</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>222</v>
+        <v>1150</v>
       </c>
       <c r="N9" s="7">
-        <v>148044</v>
+        <v>762132</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>198190</v>
+        <v>53368</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>125755</v>
+        <v>42416</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>492</v>
+        <v>141</v>
       </c>
       <c r="N10" s="7">
-        <v>323945</v>
+        <v>95784</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="D11" s="7">
-        <v>211844</v>
+        <v>93271</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>338</v>
+        <v>124</v>
       </c>
       <c r="I11" s="7">
-        <v>226343</v>
+        <v>84293</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>658</v>
+        <v>260</v>
       </c>
       <c r="N11" s="7">
-        <v>438187</v>
+        <v>177564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,153 +1883,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>619</v>
+        <v>213</v>
       </c>
       <c r="D12" s="7">
-        <v>410034</v>
+        <v>146639</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>531</v>
+        <v>188</v>
       </c>
       <c r="I12" s="7">
-        <v>352098</v>
+        <v>126709</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1150</v>
+        <v>401</v>
       </c>
       <c r="N12" s="7">
-        <v>762132</v>
+        <v>273348</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>309</v>
       </c>
       <c r="D13" s="7">
-        <v>42416</v>
+        <v>203724</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
+        <v>414</v>
+      </c>
+      <c r="I13" s="7">
+        <v>274990</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="7">
+        <v>723</v>
+      </c>
+      <c r="N13" s="7">
+        <v>478715</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="I13" s="7">
-        <v>53368</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="7">
-        <v>141</v>
-      </c>
-      <c r="N13" s="7">
-        <v>95784</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>124</v>
+        <v>554</v>
       </c>
       <c r="D14" s="7">
-        <v>84293</v>
+        <v>374348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>136</v>
+        <v>496</v>
       </c>
       <c r="I14" s="7">
-        <v>93271</v>
+        <v>330463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>260</v>
+        <v>1050</v>
       </c>
       <c r="N14" s="7">
-        <v>177564</v>
+        <v>704810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,216 +2038,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>188</v>
+        <v>863</v>
       </c>
       <c r="D15" s="7">
-        <v>126709</v>
+        <v>578072</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>213</v>
+        <v>910</v>
       </c>
       <c r="I15" s="7">
-        <v>146639</v>
+        <v>605453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>401</v>
+        <v>1773</v>
       </c>
       <c r="N15" s="7">
-        <v>273348</v>
+        <v>1183525</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>414</v>
-      </c>
-      <c r="D16" s="7">
-        <v>274990</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="7">
-        <v>309</v>
-      </c>
-      <c r="I16" s="7">
-        <v>203724</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="7">
-        <v>723</v>
-      </c>
-      <c r="N16" s="7">
-        <v>478715</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>496</v>
-      </c>
-      <c r="D17" s="7">
-        <v>330463</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="7">
-        <v>554</v>
-      </c>
-      <c r="I17" s="7">
-        <v>374348</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1050</v>
-      </c>
-      <c r="N17" s="7">
-        <v>704810</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>910</v>
-      </c>
-      <c r="D18" s="7">
-        <v>605453</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>863</v>
-      </c>
-      <c r="I18" s="7">
-        <v>578072</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1773</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1183525</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2263,8 +2104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D64295-8086-4E19-9B85-51C133366162}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D032A2-D5D5-4368-9EA2-0ECFAE5AE4F3}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2280,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2381,96 +2222,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>29945</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>43</v>
+      </c>
+      <c r="I4" s="7">
+        <v>29244</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>59189</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>37561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="I5" s="7">
+        <v>33183</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>70744</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,151 +2324,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>67506</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62427</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>129933</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="D7" s="7">
-        <v>29244</v>
+        <v>144001</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="I7" s="7">
-        <v>29945</v>
+        <v>187390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>86</v>
+        <v>476</v>
       </c>
       <c r="N7" s="7">
-        <v>59189</v>
+        <v>331390</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="D8" s="7">
-        <v>33183</v>
+        <v>193447</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="I8" s="7">
-        <v>37561</v>
+        <v>175354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>100</v>
+        <v>535</v>
       </c>
       <c r="N8" s="7">
-        <v>70744</v>
+        <v>368802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,153 +2479,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>89</v>
+        <v>488</v>
       </c>
       <c r="D9" s="7">
-        <v>62427</v>
+        <v>337448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>97</v>
+        <v>523</v>
       </c>
       <c r="I9" s="7">
-        <v>67506</v>
+        <v>362744</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>186</v>
+        <v>1011</v>
       </c>
       <c r="N9" s="7">
-        <v>129933</v>
+        <v>700192</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>187390</v>
+        <v>48220</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>144001</v>
+        <v>64357</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>476</v>
+        <v>159</v>
       </c>
       <c r="N10" s="7">
-        <v>331390</v>
+        <v>112578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7">
-        <v>175354</v>
+        <v>73856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>282</v>
+        <v>95</v>
       </c>
       <c r="I11" s="7">
-        <v>193447</v>
+        <v>66442</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>535</v>
+        <v>199</v>
       </c>
       <c r="N11" s="7">
-        <v>368802</v>
+        <v>140297</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,153 +2634,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>523</v>
+        <v>172</v>
       </c>
       <c r="D12" s="7">
-        <v>362744</v>
+        <v>122076</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>488</v>
+        <v>186</v>
       </c>
       <c r="I12" s="7">
-        <v>337448</v>
+        <v>130799</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1011</v>
+        <v>358</v>
       </c>
       <c r="N12" s="7">
-        <v>700192</v>
+        <v>252875</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>91</v>
+        <v>317</v>
       </c>
       <c r="D13" s="7">
-        <v>64357</v>
+        <v>222166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="I13" s="7">
-        <v>48220</v>
+        <v>280991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>159</v>
+        <v>721</v>
       </c>
       <c r="N13" s="7">
-        <v>112578</v>
+        <v>503157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>95</v>
+        <v>440</v>
       </c>
       <c r="D14" s="7">
-        <v>66442</v>
+        <v>304864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>104</v>
+        <v>394</v>
       </c>
       <c r="I14" s="7">
-        <v>73856</v>
+        <v>274979</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>199</v>
+        <v>834</v>
       </c>
       <c r="N14" s="7">
-        <v>140297</v>
+        <v>579843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,216 +2789,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>186</v>
+        <v>757</v>
       </c>
       <c r="D15" s="7">
-        <v>130799</v>
+        <v>527030</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>172</v>
+        <v>798</v>
       </c>
       <c r="I15" s="7">
-        <v>122076</v>
+        <v>555970</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>358</v>
+        <v>1555</v>
       </c>
       <c r="N15" s="7">
-        <v>252875</v>
+        <v>1083000</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>404</v>
-      </c>
-      <c r="D16" s="7">
-        <v>280991</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>317</v>
-      </c>
-      <c r="I16" s="7">
-        <v>222166</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>721</v>
-      </c>
-      <c r="N16" s="7">
-        <v>503157</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>395</v>
-      </c>
-      <c r="D17" s="7">
-        <v>275620</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>440</v>
-      </c>
-      <c r="I17" s="7">
-        <v>304864</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="7">
-        <v>835</v>
-      </c>
-      <c r="N17" s="7">
-        <v>580484</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>799</v>
-      </c>
-      <c r="D18" s="7">
-        <v>556611</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>757</v>
-      </c>
-      <c r="I18" s="7">
-        <v>527030</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1556</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1083641</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3164,8 +2855,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911B9B77-B206-4D08-A305-7E79D5D01BE3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB5E093-4BA7-4E64-8DB3-7BA1E83FFA71}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3181,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3282,88 +2973,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27327</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="I4" s="7">
+        <v>28322</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="N4" s="7">
+        <v>55648</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>19589</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="I5" s="7">
+        <v>25647</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="N5" s="7">
+        <v>45237</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,147 +3075,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46916</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I6" s="7">
+        <v>53969</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="N6" s="7">
+        <v>100885</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="D7" s="7">
-        <v>28322</v>
+        <v>126505</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="I7" s="7">
-        <v>27327</v>
+        <v>173046</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="N7" s="7">
-        <v>55648</v>
+        <v>299551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="D8" s="7">
-        <v>25647</v>
+        <v>244362</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="I8" s="7">
-        <v>19589</v>
+        <v>220976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>67</v>
+        <v>677</v>
       </c>
       <c r="N8" s="7">
-        <v>45237</v>
+        <v>465338</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,153 +3230,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>554</v>
       </c>
       <c r="D9" s="7">
-        <v>53969</v>
+        <v>370867</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>70</v>
+        <v>558</v>
       </c>
       <c r="I9" s="7">
-        <v>46916</v>
+        <v>394022</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>1112</v>
       </c>
       <c r="N9" s="7">
-        <v>100885</v>
+        <v>764889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>246</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>173046</v>
+        <v>36034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>126505</v>
+        <v>59805</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>435</v>
+        <v>140</v>
       </c>
       <c r="N10" s="7">
-        <v>299551</v>
+        <v>95839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="D11" s="7">
-        <v>220976</v>
+        <v>90585</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>365</v>
+        <v>109</v>
       </c>
       <c r="I11" s="7">
-        <v>244362</v>
+        <v>76137</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>677</v>
+        <v>243</v>
       </c>
       <c r="N11" s="7">
-        <v>465338</v>
+        <v>166722</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,153 +3385,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>558</v>
+        <v>187</v>
       </c>
       <c r="D12" s="7">
-        <v>394022</v>
+        <v>126619</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>554</v>
+        <v>196</v>
       </c>
       <c r="I12" s="7">
-        <v>370867</v>
+        <v>135942</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1112</v>
+        <v>383</v>
       </c>
       <c r="N12" s="7">
-        <v>764889</v>
+        <v>262561</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="D13" s="7">
-        <v>59805</v>
+        <v>189866</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>372</v>
       </c>
       <c r="I13" s="7">
-        <v>36034</v>
+        <v>261173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
-        <v>140</v>
+        <v>655</v>
       </c>
       <c r="N13" s="7">
-        <v>95839</v>
+        <v>451038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>109</v>
+        <v>528</v>
       </c>
       <c r="D14" s="7">
-        <v>76137</v>
+        <v>354536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>134</v>
+        <v>459</v>
       </c>
       <c r="I14" s="7">
-        <v>90585</v>
+        <v>322761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>243</v>
+        <v>987</v>
       </c>
       <c r="N14" s="7">
-        <v>166722</v>
+        <v>677298</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,216 +3540,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>196</v>
+        <v>811</v>
       </c>
       <c r="D15" s="7">
-        <v>135942</v>
+        <v>544402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>187</v>
+        <v>831</v>
       </c>
       <c r="I15" s="7">
-        <v>126619</v>
+        <v>583934</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>383</v>
+        <v>1642</v>
       </c>
       <c r="N15" s="7">
-        <v>262561</v>
+        <v>1128336</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>372</v>
-      </c>
-      <c r="D16" s="7">
-        <v>261173</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" s="7">
-        <v>283</v>
-      </c>
-      <c r="I16" s="7">
-        <v>189866</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M16" s="7">
-        <v>655</v>
-      </c>
-      <c r="N16" s="7">
-        <v>451038</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>459</v>
-      </c>
-      <c r="D17" s="7">
-        <v>322761</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="7">
-        <v>528</v>
-      </c>
-      <c r="I17" s="7">
-        <v>354536</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M17" s="7">
-        <v>987</v>
-      </c>
-      <c r="N17" s="7">
-        <v>677298</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>831</v>
-      </c>
-      <c r="D18" s="7">
-        <v>583934</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>811</v>
-      </c>
-      <c r="I18" s="7">
-        <v>544402</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1642</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1128336</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4053,8 +3606,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD6843F-69EE-4325-AA48-97B90D50E478}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D68975C-852E-4596-96B3-D0A360D5E53D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4070,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4171,96 +3724,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17913</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>18036</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>35949</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29218</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>34041</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>63259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,151 +3826,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47131</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>52077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>99208</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="D7" s="7">
-        <v>17915</v>
+        <v>112628</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="I7" s="7">
-        <v>16196</v>
+        <v>191017</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="N7" s="7">
-        <v>34110</v>
+        <v>303645</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>374</v>
       </c>
       <c r="D8" s="7">
-        <v>31953</v>
+        <v>280305</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="I8" s="7">
-        <v>27365</v>
+        <v>261357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
-        <v>80</v>
+        <v>699</v>
       </c>
       <c r="N8" s="7">
-        <v>59318</v>
+        <v>541662</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,153 +3981,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>68</v>
+        <v>540</v>
       </c>
       <c r="D9" s="7">
-        <v>49868</v>
+        <v>392933</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>57</v>
+        <v>554</v>
       </c>
       <c r="I9" s="7">
-        <v>43561</v>
+        <v>452374</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>125</v>
+        <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>93428</v>
+        <v>845307</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>182873</v>
+        <v>31045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>114650</v>
+        <v>45547</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>297524</v>
+        <v>76593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>325</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7">
-        <v>248894</v>
+        <v>102844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>374</v>
+        <v>132</v>
       </c>
       <c r="I11" s="7">
-        <v>268900</v>
+        <v>102853</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>699</v>
+        <v>288</v>
       </c>
       <c r="N11" s="7">
-        <v>517793</v>
+        <v>205697</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,153 +4136,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>554</v>
+        <v>203</v>
       </c>
       <c r="D12" s="7">
-        <v>431767</v>
+        <v>133889</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>540</v>
+        <v>194</v>
       </c>
       <c r="I12" s="7">
-        <v>383550</v>
+        <v>148400</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1094</v>
+        <v>397</v>
       </c>
       <c r="N12" s="7">
-        <v>815317</v>
+        <v>282290</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>44372</v>
+        <v>161585</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="I13" s="7">
-        <v>31280</v>
+        <v>254601</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
-        <v>109</v>
+        <v>549</v>
       </c>
       <c r="N13" s="7">
-        <v>75652</v>
+        <v>416187</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>132</v>
+        <v>567</v>
       </c>
       <c r="D14" s="7">
-        <v>97828</v>
+        <v>412368</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
-        <v>156</v>
+        <v>500</v>
       </c>
       <c r="I14" s="7">
-        <v>104334</v>
+        <v>398251</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
-        <v>288</v>
+        <v>1067</v>
       </c>
       <c r="N14" s="7">
-        <v>202162</v>
+        <v>810618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,216 +4291,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>194</v>
+        <v>800</v>
       </c>
       <c r="D15" s="7">
-        <v>142200</v>
+        <v>573953</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>203</v>
+        <v>816</v>
       </c>
       <c r="I15" s="7">
-        <v>135614</v>
+        <v>652852</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>397</v>
+        <v>1616</v>
       </c>
       <c r="N15" s="7">
-        <v>277814</v>
+        <v>1226805</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>316</v>
-      </c>
-      <c r="D16" s="7">
-        <v>245159</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="7">
-        <v>234</v>
-      </c>
-      <c r="I16" s="7">
-        <v>163297</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M16" s="7">
-        <v>550</v>
-      </c>
-      <c r="N16" s="7">
-        <v>408456</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>500</v>
-      </c>
-      <c r="D17" s="7">
-        <v>378675</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H17" s="7">
-        <v>567</v>
-      </c>
-      <c r="I17" s="7">
-        <v>400599</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N17" s="7">
-        <v>779274</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>816</v>
-      </c>
-      <c r="D18" s="7">
-        <v>623834</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>801</v>
-      </c>
-      <c r="I18" s="7">
-        <v>563896</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1617</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1187730</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>89</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
